--- a/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
+++ b/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,10 +485,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -504,11 +502,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,10 +517,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -538,11 +534,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,11 +566,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,10 +581,8 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -604,11 +598,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -636,11 +630,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,7 +647,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -670,11 +664,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -687,7 +681,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -704,11 +698,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -736,11 +730,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -751,8 +745,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -768,11 +764,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -800,11 +796,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,8 +811,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -832,11 +830,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -847,8 +845,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -864,11 +864,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -896,11 +896,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -928,11 +928,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -943,10 +943,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -962,11 +960,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -977,10 +975,8 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -996,11 +992,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1011,10 +1007,8 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1030,11 +1024,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1045,10 +1039,8 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1064,11 +1056,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1079,18 +1071,14 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H20" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -1100,11 +1088,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1115,8 +1103,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1132,11 +1122,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1147,8 +1137,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1164,11 +1156,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,8 +1171,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1196,11 +1190,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1211,8 +1205,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1228,11 +1224,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1243,14 +1239,18 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
       </c>
-      <c r="H25" t="n">
-        <v/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1260,11 +1260,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1292,11 +1292,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1324,11 +1324,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1420,11 +1420,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1484,11 +1484,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1531,10 +1531,8 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1550,11 +1548,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1582,11 +1580,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1614,11 +1612,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1629,10 +1627,8 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1648,11 +1644,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1663,10 +1659,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1682,11 +1676,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1697,8 +1691,10 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1714,11 +1710,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1729,10 +1725,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1748,11 +1742,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1763,10 +1757,8 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1782,11 +1774,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1799,7 +1791,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1816,11 +1808,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1833,7 +1825,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1850,11 +1842,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1863,12 +1855,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -1884,11 +1874,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1899,8 +1889,10 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0964945901</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -1916,11 +1908,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1929,20 +1921,18 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v/>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H46" t="n">
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1952,11 +1942,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1969,7 +1959,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1986,11 +1976,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2001,8 +1991,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2018,11 +2010,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2031,10 +2023,12 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v/>
-      </c>
-      <c r="F49" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2050,11 +2044,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2065,10 +2059,8 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2084,11 +2076,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2097,16 +2089,20 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v/>
-      </c>
-      <c r="F51" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
       </c>
-      <c r="H51" t="n">
-        <v/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2116,11 +2112,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2131,8 +2127,10 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2148,11 +2146,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2180,11 +2178,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2212,11 +2210,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2227,8 +2225,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2244,11 +2244,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2276,11 +2276,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2308,11 +2308,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2340,11 +2340,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2372,11 +2372,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2387,10 +2387,8 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2406,11 +2404,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2438,11 +2436,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2470,11 +2468,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2502,11 +2500,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2534,11 +2532,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2549,8 +2547,10 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2566,11 +2566,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2598,11 +2598,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2630,11 +2630,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2662,11 +2662,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2694,11 +2694,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2726,11 +2726,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2758,11 +2758,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2790,11 +2790,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2854,11 +2854,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2886,11 +2886,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2918,11 +2918,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2950,11 +2950,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2982,11 +2982,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3014,11 +3014,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3046,11 +3046,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3078,11 +3078,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3110,11 +3110,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3142,11 +3142,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3174,11 +3174,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3206,11 +3206,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3238,11 +3238,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3270,11 +3270,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3285,10 +3285,8 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3304,11 +3302,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3336,11 +3334,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3368,11 +3366,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3400,11 +3398,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3432,11 +3430,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3447,8 +3445,10 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -3464,11 +3464,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3528,11 +3528,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3560,28 +3560,188 @@
         </is>
       </c>
       <c r="B97" t="n">
+        <v>63</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v/>
+      </c>
+      <c r="F97" t="n">
+        <v/>
+      </c>
+      <c r="G97" t="n">
+        <v/>
+      </c>
+      <c r="H97" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>62</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v/>
+      </c>
+      <c r="F98" t="n">
+        <v/>
+      </c>
+      <c r="G98" t="n">
+        <v/>
+      </c>
+      <c r="H98" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>61</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v/>
+      </c>
+      <c r="F99" t="n">
+        <v/>
+      </c>
+      <c r="G99" t="n">
+        <v/>
+      </c>
+      <c r="H99" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>60</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v/>
+      </c>
+      <c r="F100" t="n">
+        <v/>
+      </c>
+      <c r="G100" t="n">
+        <v/>
+      </c>
+      <c r="H100" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>59</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v/>
+      </c>
+      <c r="F101" t="n">
+        <v/>
+      </c>
+      <c r="G101" t="n">
+        <v/>
+      </c>
+      <c r="H101" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
         <v>58</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v/>
-      </c>
-      <c r="F97" t="n">
-        <v/>
-      </c>
-      <c r="G97" t="n">
-        <v/>
-      </c>
-      <c r="H97" t="n">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v/>
+      </c>
+      <c r="F102" t="n">
+        <v/>
+      </c>
+      <c r="G102" t="n">
+        <v/>
+      </c>
+      <c r="H102" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
+++ b/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,8 +485,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0347738370</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -502,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,8 +519,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>077721995</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -534,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,8 +553,10 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0917250314</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -566,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,8 +587,10 @@
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -598,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -630,11 +638,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -647,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0969134464</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -664,11 +672,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -681,7 +689,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -698,11 +706,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -713,8 +721,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -730,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -745,10 +755,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -764,11 +772,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -796,11 +804,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -811,10 +819,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -830,11 +836,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,10 +851,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -864,11 +868,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -896,11 +900,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -911,8 +915,10 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0969134464</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -928,11 +934,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -943,8 +949,10 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -960,11 +968,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -992,11 +1000,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1007,8 +1015,10 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1024,11 +1034,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1056,11 +1066,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1071,8 +1081,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1088,11 +1100,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1105,7 +1117,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0967039154</t>
+          <t>0852054955</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1122,11 +1134,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1137,10 +1149,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1156,11 +1166,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1171,10 +1181,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1190,11 +1198,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1205,10 +1213,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1224,11 +1230,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1239,18 +1245,14 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H25" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -1260,11 +1262,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1292,11 +1294,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1324,11 +1326,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1356,11 +1358,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1371,8 +1373,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1388,11 +1392,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1403,8 +1407,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1420,11 +1426,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1435,8 +1441,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1452,11 +1460,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1467,8 +1475,10 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1484,11 +1494,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1499,14 +1509,18 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
       </c>
-      <c r="H33" t="n">
-        <v/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1516,11 +1530,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1548,11 +1562,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1580,11 +1594,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1612,11 +1626,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1644,11 +1658,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1676,11 +1690,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1691,10 +1705,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1710,11 +1722,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1742,11 +1754,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1774,11 +1786,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1789,10 +1801,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1808,11 +1818,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1823,10 +1833,8 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -1842,11 +1850,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1874,11 +1882,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1889,10 +1897,8 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -1908,11 +1914,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1923,10 +1929,8 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1942,11 +1946,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1959,7 +1963,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1976,11 +1980,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1991,10 +1995,8 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0365658917</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2010,11 +2012,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2023,12 +2025,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9417002720</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0374112377</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2044,11 +2044,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2059,8 +2059,10 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="n">
-        <v/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2076,11 +2078,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2089,20 +2091,18 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v/>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H51" t="n">
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -2112,11 +2112,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2127,10 +2127,8 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0376680568</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2146,11 +2144,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2161,8 +2159,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0964945901</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2178,11 +2178,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2193,8 +2193,10 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0326608620</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2210,11 +2212,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2227,7 +2229,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2244,11 +2246,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2259,8 +2261,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0365658917</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2276,11 +2280,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2289,10 +2293,12 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v/>
-      </c>
-      <c r="F57" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2308,11 +2314,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2321,16 +2327,20 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v/>
-      </c>
-      <c r="F58" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
       </c>
-      <c r="H58" t="n">
-        <v/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2340,11 +2350,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2355,8 +2365,10 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2372,11 +2384,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2404,11 +2416,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2436,11 +2448,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2451,8 +2463,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2468,11 +2482,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2500,11 +2514,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2532,11 +2546,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2547,10 +2561,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2566,11 +2578,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2598,11 +2610,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2630,11 +2642,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2662,11 +2674,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2694,11 +2706,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2726,11 +2738,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2758,11 +2770,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2773,8 +2785,10 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="n">
-        <v/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2790,11 +2804,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2822,11 +2836,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2854,11 +2868,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2886,11 +2900,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2918,11 +2932,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2950,11 +2964,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2982,11 +2996,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3014,11 +3028,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3046,11 +3060,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3078,11 +3092,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3110,11 +3124,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3142,11 +3156,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3174,11 +3188,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3206,11 +3220,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3238,11 +3252,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3270,11 +3284,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3302,11 +3316,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3334,11 +3348,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3366,11 +3380,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3398,11 +3412,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3430,11 +3444,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3445,10 +3459,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -3464,11 +3476,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3496,11 +3508,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3528,11 +3540,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3560,11 +3572,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3592,11 +3604,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3624,11 +3636,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3656,11 +3668,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3671,8 +3683,10 @@
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="n">
-        <v/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -3688,11 +3702,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3720,28 +3734,252 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>65</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Đa Ra</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v/>
+      </c>
+      <c r="F102" t="n">
+        <v/>
+      </c>
+      <c r="G102" t="n">
+        <v/>
+      </c>
+      <c r="H102" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>64</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>c.Lan</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v/>
+      </c>
+      <c r="F103" t="n">
+        <v/>
+      </c>
+      <c r="G103" t="n">
+        <v/>
+      </c>
+      <c r="H103" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>63</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v/>
+      </c>
+      <c r="F104" t="n">
+        <v/>
+      </c>
+      <c r="G104" t="n">
+        <v/>
+      </c>
+      <c r="H104" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>62</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v/>
+      </c>
+      <c r="F105" t="n">
+        <v/>
+      </c>
+      <c r="G105" t="n">
+        <v/>
+      </c>
+      <c r="H105" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>61</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v/>
+      </c>
+      <c r="F106" t="n">
+        <v/>
+      </c>
+      <c r="G106" t="n">
+        <v/>
+      </c>
+      <c r="H106" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>60</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v/>
+      </c>
+      <c r="F107" t="n">
+        <v/>
+      </c>
+      <c r="G107" t="n">
+        <v/>
+      </c>
+      <c r="H107" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>59</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v/>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+      <c r="G108" t="n">
+        <v/>
+      </c>
+      <c r="H108" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
         <v>58</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v/>
-      </c>
-      <c r="F102" t="n">
-        <v/>
-      </c>
-      <c r="G102" t="n">
-        <v/>
-      </c>
-      <c r="H102" t="n">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v/>
+      </c>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+      <c r="G109" t="n">
+        <v/>
+      </c>
+      <c r="H109" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
+++ b/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,8 +621,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>077721995</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -638,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -672,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -706,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -721,10 +723,8 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0868883621</t>
-        </is>
+      <c r="F9" t="n">
+        <v/>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,8 +755,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -772,11 +774,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -787,8 +789,10 @@
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0908179083</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -804,11 +808,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -819,8 +823,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -836,11 +842,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -868,11 +874,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -900,11 +906,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,10 +921,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -934,11 +938,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -949,10 +953,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -968,11 +970,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1000,11 +1002,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1017,7 +1019,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>032781693</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1034,11 +1036,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1049,8 +1051,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1066,11 +1070,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1081,10 +1085,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1100,11 +1102,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1117,7 +1119,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1134,11 +1136,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1166,11 +1168,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1181,8 +1183,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1198,11 +1202,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1213,8 +1217,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1230,11 +1236,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1262,11 +1268,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1294,11 +1300,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1326,11 +1332,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1358,11 +1364,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1373,10 +1379,8 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F29" t="n">
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1392,11 +1396,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1407,10 +1411,8 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1426,11 +1428,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1441,10 +1443,8 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1460,11 +1460,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1511,16 +1511,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v/>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H33" t="n">
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -1530,11 +1528,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1545,8 +1543,10 @@
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1577,8 +1577,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1594,11 +1596,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1609,14 +1611,18 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
       </c>
-      <c r="H36" t="n">
-        <v/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1626,11 +1632,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1658,11 +1664,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1690,11 +1696,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1722,11 +1728,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1754,11 +1760,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1786,11 +1792,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1818,11 +1824,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1850,11 +1856,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1882,11 +1888,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1914,11 +1920,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1946,11 +1952,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1961,10 +1967,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -1980,11 +1984,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2012,11 +2016,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2044,11 +2048,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2061,7 +2065,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2078,11 +2082,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2093,10 +2097,8 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2112,11 +2114,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2144,11 +2146,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2161,7 +2163,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2178,11 +2180,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2195,7 +2197,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2212,11 +2214,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2227,10 +2229,8 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0386084494</t>
-        </is>
+      <c r="F55" t="n">
+        <v/>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2246,11 +2246,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2280,11 +2280,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2293,11 +2293,11 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2314,11 +2314,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2327,20 +2327,18 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G58" t="n">
         <v/>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H58" t="n">
+        <v/>
       </c>
     </row>
     <row r="59">
@@ -2350,11 +2348,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2367,7 +2365,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2384,11 +2382,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2397,10 +2395,12 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v/>
-      </c>
-      <c r="F60" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2429,16 +2429,20 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v/>
-      </c>
-      <c r="F61" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
       </c>
-      <c r="H61" t="n">
-        <v/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2448,11 +2452,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2482,11 +2486,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2514,11 +2518,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2546,11 +2550,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2561,8 +2565,10 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2578,11 +2584,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2610,11 +2616,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2642,11 +2648,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2674,11 +2680,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2706,11 +2712,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2738,11 +2744,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2770,11 +2776,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2785,10 +2791,8 @@
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2804,11 +2808,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2836,11 +2840,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2868,11 +2872,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2883,8 +2887,10 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2900,11 +2906,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2932,11 +2938,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2964,11 +2970,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2996,11 +3002,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3028,11 +3034,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3060,11 +3066,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3092,11 +3098,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3124,11 +3130,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3156,11 +3162,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3188,11 +3194,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3220,11 +3226,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3252,11 +3258,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3284,11 +3290,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3316,11 +3322,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3348,11 +3354,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3380,11 +3386,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3412,11 +3418,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3444,11 +3450,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3476,11 +3482,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3508,11 +3514,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3540,11 +3546,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3572,11 +3578,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3604,11 +3610,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3636,11 +3642,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3668,11 +3674,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3683,10 +3689,8 @@
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F100" t="n">
+        <v/>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -3702,11 +3706,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3734,11 +3738,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3766,11 +3770,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3781,8 +3785,10 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="n">
-        <v/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -3798,11 +3804,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3830,11 +3836,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3862,11 +3868,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3894,11 +3900,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3926,11 +3932,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3958,28 +3964,124 @@
         </is>
       </c>
       <c r="B109" t="n">
+        <v>61</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v/>
+      </c>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+      <c r="G109" t="n">
+        <v/>
+      </c>
+      <c r="H109" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>60</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v/>
+      </c>
+      <c r="F110" t="n">
+        <v/>
+      </c>
+      <c r="G110" t="n">
+        <v/>
+      </c>
+      <c r="H110" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>59</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v/>
+      </c>
+      <c r="F111" t="n">
+        <v/>
+      </c>
+      <c r="G111" t="n">
+        <v/>
+      </c>
+      <c r="H111" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
         <v>58</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v/>
-      </c>
-      <c r="F109" t="n">
-        <v/>
-      </c>
-      <c r="G109" t="n">
-        <v/>
-      </c>
-      <c r="H109" t="n">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v/>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+      <c r="G112" t="n">
+        <v/>
+      </c>
+      <c r="H112" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
+++ b/report_khach_hang/Danh sách khách hàng SÓC TRĂNG.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0949407389</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,8 +723,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -740,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,10 +757,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0983432263</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -774,11 +774,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,11 +842,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -857,8 +857,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -874,11 +876,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,11 +908,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -938,11 +940,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -970,11 +972,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1002,11 +1004,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1017,10 +1019,8 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1036,11 +1036,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1085,8 +1085,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1102,11 +1104,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1117,10 +1119,8 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1136,11 +1136,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1151,8 +1151,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1168,11 +1170,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1183,10 +1185,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1202,11 +1202,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1236,11 +1236,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1251,8 +1251,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1268,11 +1270,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1300,11 +1302,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1332,11 +1334,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1364,11 +1366,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1396,11 +1398,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1428,11 +1430,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1460,11 +1462,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1475,10 +1477,8 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1528,11 +1528,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1596,11 +1596,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1613,16 +1613,14 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v/>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H36" t="n">
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -1632,11 +1630,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1647,14 +1645,18 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
       </c>
-      <c r="H37" t="n">
-        <v/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1664,11 +1666,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1696,11 +1698,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1728,11 +1730,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1760,11 +1762,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1792,11 +1794,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1824,11 +1826,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1856,11 +1858,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1888,11 +1890,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1920,11 +1922,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1952,11 +1954,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1984,11 +1986,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2016,11 +2018,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2048,11 +2050,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2063,10 +2065,8 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2082,11 +2082,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2097,8 +2097,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2114,11 +2116,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2146,11 +2148,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2161,10 +2163,8 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2180,11 +2180,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2214,11 +2214,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2229,8 +2229,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0848708885</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2246,11 +2248,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2261,10 +2263,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2280,11 +2280,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2314,11 +2314,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2348,11 +2348,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2382,11 +2382,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2395,11 +2395,11 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2429,20 +2429,18 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v/>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H61" t="n">
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -2452,11 +2450,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2465,18 +2463,20 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G62" t="n">
         <v/>
       </c>
-      <c r="H62" t="n">
-        <v/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2486,11 +2486,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2501,8 +2501,10 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2518,11 +2520,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2550,11 +2552,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2565,10 +2567,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2584,11 +2584,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2599,8 +2599,10 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2616,11 +2618,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2648,11 +2650,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2680,11 +2682,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2712,11 +2714,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2744,11 +2746,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2776,11 +2778,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2808,11 +2810,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2840,11 +2842,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2872,11 +2874,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2887,10 +2889,8 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2906,11 +2906,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2921,8 +2921,10 @@
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="n">
-        <v/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -2938,11 +2940,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2970,11 +2972,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3002,11 +3004,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3034,11 +3036,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3066,11 +3068,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3098,11 +3100,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3130,11 +3132,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3162,11 +3164,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3194,11 +3196,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3226,11 +3228,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3258,11 +3260,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3290,11 +3292,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3322,11 +3324,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3354,11 +3356,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3386,11 +3388,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3418,11 +3420,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3450,11 +3452,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3482,11 +3484,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3514,11 +3516,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3546,11 +3548,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3578,11 +3580,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3610,11 +3612,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3642,11 +3644,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3674,11 +3676,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3706,11 +3708,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3738,11 +3740,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3770,11 +3772,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3785,10 +3787,8 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F103" t="n">
+        <v/>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -3804,11 +3804,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3819,8 +3819,10 @@
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="n">
-        <v/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -3836,11 +3838,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3868,11 +3870,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3900,11 +3902,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3932,11 +3934,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3964,11 +3966,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3996,11 +3998,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4028,11 +4030,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4060,28 +4062,60 @@
         </is>
       </c>
       <c r="B112" t="n">
+        <v>59</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v/>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+      <c r="G112" t="n">
+        <v/>
+      </c>
+      <c r="H112" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
         <v>58</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Chị Mai</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v/>
-      </c>
-      <c r="F112" t="n">
-        <v/>
-      </c>
-      <c r="G112" t="n">
-        <v/>
-      </c>
-      <c r="H112" t="n">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v/>
+      </c>
+      <c r="F113" t="n">
+        <v/>
+      </c>
+      <c r="G113" t="n">
+        <v/>
+      </c>
+      <c r="H113" t="n">
         <v/>
       </c>
     </row>
